--- a/National_level_Election_Data_21_January.xlsx
+++ b/National_level_Election_Data_21_January.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6b038fdb6c877ec/Desktop/InfosysProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="8_{0D916817-052F-4005-9DF1-E047DBBCA73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE81F353-3C08-4255-B37A-DA7535694381}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="8_{0D916817-052F-4005-9DF1-E047DBBCA73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C203595-81B6-4106-AA96-ED454D0B834B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{38844FAA-8C4F-4A24-9426-E7D39664489C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38844FAA-8C4F-4A24-9426-E7D39664489C}"/>
   </bookViews>
   <sheets>
     <sheet name="Manipur National E_Data" sheetId="1" r:id="rId1"/>
     <sheet name="Nagaland National E_Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Summary" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="95">
   <si>
     <t>YEAR</t>
   </si>
@@ -94,9 +95,6 @@
     <t>–</t>
   </si>
   <si>
-    <t>2,98,552*</t>
-  </si>
-  <si>
     <t>Outer Manipur</t>
   </si>
   <si>
@@ -154,9 +152,6 @@
     <t>N. Gouzagin</t>
   </si>
   <si>
-    <t>INC(I)</t>
-  </si>
-  <si>
     <t>Meijinlung</t>
   </si>
   <si>
@@ -302,6 +297,30 @@
   </si>
   <si>
     <t>S. Supongmeren Jamir</t>
+  </si>
+  <si>
+    <t>Ears of Corn and Sickle</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bicycle</t>
+  </si>
+  <si>
+    <t>Cultivator Cutting Crop</t>
+  </si>
+  <si>
+    <t>Free Symbols</t>
+  </si>
+  <si>
+    <t>Umbrella</t>
+  </si>
+  <si>
+    <t>Free Symbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Elephant </t>
   </si>
 </sst>
 </file>
@@ -414,6 +433,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>46308</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>84101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A42955D-36EF-CC1A-155A-4C941B8AAAEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1798320" y="502920"/>
+          <a:ext cx="6782388" cy="3238781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,15 +783,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AB3096-1B83-47EE-877C-B6D99916DF24}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -793,10 +861,10 @@
         <v>17</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>19</v>
+        <v>60</v>
+      </c>
+      <c r="J2" s="8">
+        <v>298552</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>18</v>
@@ -824,25 +892,25 @@
         <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="7">
         <v>2</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="I3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>19</v>
+        <v>92</v>
+      </c>
+      <c r="J3" s="8">
+        <v>298552</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>18</v>
@@ -876,16 +944,16 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="I4" s="6" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="J4" s="8">
         <v>166959</v>
@@ -916,13 +984,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="7">
         <v>2</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>16</v>
@@ -931,7 +999,7 @@
         <v>17</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J5" s="8">
         <v>163252</v>
@@ -943,7 +1011,7 @@
         <v>0.26229999999999998</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N5" s="9">
         <v>81247</v>
@@ -968,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>16</v>
@@ -977,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J6" s="8">
         <v>212925</v>
@@ -989,7 +1057,7 @@
         <v>0.31850000000000001</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N6" s="8">
         <v>145368</v>
@@ -1008,22 +1076,22 @@
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="7">
         <v>2</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="J7" s="8">
         <v>192285</v>
@@ -1035,7 +1103,7 @@
         <v>0.29849999999999999</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N7" s="8">
         <v>119402</v>
@@ -1060,16 +1128,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="I8" s="6" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="J8" s="8">
         <v>236086</v>
@@ -1100,22 +1168,22 @@
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="J9" s="8">
         <v>232042</v>
@@ -1127,7 +1195,7 @@
         <v>0.31850000000000001</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N9" s="8">
         <v>122831</v>
@@ -1152,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>16</v>
@@ -1161,7 +1229,7 @@
         <v>17</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J10" s="8">
         <v>285986</v>
@@ -1192,13 +1260,13 @@
         <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>16</v>
@@ -1207,7 +1275,7 @@
         <v>17</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J11" s="8">
         <v>257421</v>
@@ -1219,7 +1287,7 @@
         <v>0.3085</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N11" s="8">
         <v>123090</v>
@@ -1244,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>16</v>
@@ -1253,7 +1321,7 @@
         <v>17</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J12" s="8">
         <v>403514</v>
@@ -1282,13 +1350,13 @@
         <v>13</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>16</v>
@@ -1297,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J13" s="8">
         <v>384709</v>
@@ -1309,7 +1377,7 @@
         <v>0.46629999999999999</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N13" s="8">
         <v>215438</v>
@@ -1332,16 +1400,16 @@
         <v>1</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="J14" s="8">
         <v>468918</v>
@@ -1370,22 +1438,22 @@
         <v>13</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="7">
         <v>2</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J15" s="8">
         <v>440364</v>
@@ -1397,7 +1465,7 @@
         <v>0.30549999999999999</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N15" s="8">
         <v>389983</v>
@@ -1420,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>16</v>
@@ -1429,7 +1497,7 @@
         <v>17</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J16" s="8">
         <v>534487</v>
@@ -1458,13 +1526,13 @@
         <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="7">
         <v>2</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>16</v>
@@ -1473,7 +1541,7 @@
         <v>17</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J17" s="8">
         <v>479584</v>
@@ -1485,7 +1553,7 @@
         <v>0.51149999999999995</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N17" s="8">
         <v>408339</v>
@@ -1508,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>16</v>
@@ -1517,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J18" s="8">
         <v>636251</v>
@@ -1529,7 +1597,7 @@
         <v>0.42449999999999999</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N18" s="8">
         <v>468918</v>
@@ -1546,13 +1614,13 @@
         <v>13</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="7">
         <v>2</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>16</v>
@@ -1561,7 +1629,7 @@
         <v>17</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J19" s="8">
         <v>583263</v>
@@ -1573,7 +1641,7 @@
         <v>0.48330000000000001</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N19" s="8">
         <v>406240</v>
@@ -1596,16 +1664,16 @@
         <v>1</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="I20" s="6" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="J20" s="8">
         <v>643001</v>
@@ -1634,22 +1702,22 @@
         <v>13</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="7">
         <v>2</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J21" s="8">
         <v>589148</v>
@@ -1661,7 +1729,7 @@
         <v>0.36649999999999999</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N21" s="8">
         <v>408919</v>
@@ -1684,16 +1752,16 @@
         <v>1</v>
       </c>
       <c r="F22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="I22" s="6" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J22" s="8">
         <v>671850</v>
@@ -1705,7 +1773,7 @@
         <v>0.32550000000000001</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N22" s="8">
         <v>523040</v>
@@ -1722,13 +1790,13 @@
         <v>13</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="7">
         <v>2</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>16</v>
@@ -1737,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J23" s="8">
         <v>619140</v>
@@ -1749,7 +1817,7 @@
         <v>0.35849999999999999</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N23" s="8">
         <v>445743</v>
@@ -1772,16 +1840,16 @@
         <v>1</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="J24" s="8">
         <v>657928</v>
@@ -1810,22 +1878,22 @@
         <v>13</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" s="7">
         <v>2</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="J25" s="8">
         <v>714411</v>
@@ -1837,7 +1905,7 @@
         <v>0.26729999999999998</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N25" s="8">
         <v>454615</v>
@@ -1860,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>16</v>
@@ -1869,7 +1937,7 @@
         <v>17</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J26" s="8">
         <v>741104</v>
@@ -1898,22 +1966,22 @@
         <v>13</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27" s="7">
         <v>2</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="J27" s="8">
         <v>795792</v>
@@ -1925,7 +1993,7 @@
         <v>0.37090000000000001</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N27" s="8">
         <v>619271</v>
@@ -1948,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>16</v>
@@ -1957,7 +2025,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J28" s="8">
         <v>826755</v>
@@ -1986,13 +2054,13 @@
         <v>13</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" s="7">
         <v>2</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>16</v>
@@ -2001,7 +2069,7 @@
         <v>17</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J29" s="8">
         <v>909496</v>
@@ -2013,7 +2081,7 @@
         <v>0.45390000000000003</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N29" s="8">
         <v>756181</v>
@@ -2036,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>16</v>
@@ -2045,7 +2113,7 @@
         <v>17</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J30" s="8">
         <v>855359</v>
@@ -2074,13 +2142,13 @@
         <v>13</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="7">
         <v>2</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>16</v>
@@ -2089,7 +2157,7 @@
         <v>17</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J31" s="8">
         <v>918966</v>
@@ -2101,7 +2169,7 @@
         <v>0.38450000000000001</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N31" s="8">
         <v>771766</v>
@@ -2124,16 +2192,16 @@
         <v>1</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J32" s="8">
         <v>928326</v>
@@ -2162,22 +2230,22 @@
         <v>13</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" s="7">
         <v>2</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J33" s="8">
         <v>1031237</v>
@@ -2189,7 +2257,7 @@
         <v>0.42270000000000002</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N33" s="8">
         <v>858029</v>
@@ -2212,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>16</v>
@@ -2221,7 +2289,7 @@
         <v>17</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J34" s="8">
         <v>992306</v>
@@ -2250,13 +2318,13 @@
         <v>13</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" s="7">
         <v>2</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>16</v>
@@ -2265,7 +2333,7 @@
         <v>17</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J35" s="8">
         <v>1022752</v>
@@ -2277,7 +2345,7 @@
         <v>0.48320000000000002</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N35" s="8">
         <v>785937</v>
@@ -2310,15 +2378,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977902ED-0E5F-48D4-87D6-F1DBDF1567A0}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="97" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -2348,13 +2419,13 @@
         <v>8</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>12</v>
@@ -2370,25 +2441,25 @@
         <v>1967</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>18</v>
@@ -2397,7 +2468,7 @@
         <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>5</v>
@@ -2414,25 +2485,25 @@
         <v>1971</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="J3" s="3">
         <v>275459</v>
@@ -2458,25 +2529,25 @@
         <v>1977</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="J4" s="3">
         <v>473348</v>
@@ -2502,25 +2573,25 @@
         <v>1980</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="J5" s="3">
         <v>458074</v>
@@ -2546,16 +2617,16 @@
         <v>1984</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>16</v>
@@ -2564,7 +2635,7 @@
         <v>17</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J6" s="3">
         <v>591241</v>
@@ -2590,16 +2661,16 @@
         <v>1989</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>16</v>
@@ -2608,7 +2679,7 @@
         <v>17</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J7" s="3">
         <v>811878</v>
@@ -2634,25 +2705,25 @@
         <v>1991</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="J8" s="3">
         <v>813873</v>
@@ -2678,16 +2749,16 @@
         <v>1996</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
@@ -2696,7 +2767,7 @@
         <v>17</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="3">
         <v>874518</v>
@@ -2722,16 +2793,16 @@
         <v>1999</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>16</v>
@@ -2740,7 +2811,7 @@
         <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J10" s="3">
         <v>955914</v>
@@ -2766,25 +2837,25 @@
         <v>2004</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J11" s="3">
         <v>1041433</v>
@@ -2810,25 +2881,25 @@
         <v>2009</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J12" s="3">
         <v>1321878</v>
@@ -2854,25 +2925,25 @@
         <v>2014</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J13" s="3">
         <v>1182948</v>
@@ -2898,25 +2969,25 @@
         <v>2019</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="J14" s="3">
         <v>1213777</v>
@@ -2942,16 +3013,16 @@
         <v>2024</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>16</v>
@@ -2960,7 +3031,7 @@
         <v>17</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J15" s="3">
         <v>1317538</v>
@@ -2981,4 +3052,19 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31229285-0D29-47A2-97C9-7BEEEA3618CC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>